--- a/www/IndicatorsPerCountry/Zimbabwe_CopperProduction_TerritorialRef_1965_2012_CCode_716.xlsx
+++ b/www/IndicatorsPerCountry/Zimbabwe_CopperProduction_TerritorialRef_1965_2012_CCode_716.xlsx
@@ -93,13 +93,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Zimbabwe_CopperProduction_TerritorialRef_1965_2012_CCode_716.xlsx
+++ b/www/IndicatorsPerCountry/Zimbabwe_CopperProduction_TerritorialRef_1965_2012_CCode_716.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="77">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,31 +39,175 @@
     <t>0</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>51.9</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>47.6</t>
+  </si>
+  <si>
+    <t>41.3</t>
+  </si>
+  <si>
+    <t>34.8</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>29.6</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>24.583</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4.511</t>
+  </si>
+  <si>
+    <t>2.104</t>
+  </si>
+  <si>
+    <t>2.057</t>
+  </si>
+  <si>
+    <t>2.502</t>
+  </si>
+  <si>
+    <t>2.767</t>
+  </si>
+  <si>
+    <t>2.383</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>2.581</t>
+  </si>
+  <si>
+    <t>2.681</t>
+  </si>
+  <si>
+    <t>2.827</t>
+  </si>
+  <si>
+    <t>3.572</t>
+  </si>
+  <si>
+    <t>4.629</t>
+  </si>
+  <si>
+    <t>6.555</t>
+  </si>
+  <si>
+    <t>4.724</t>
   </si>
   <si>
     <t>Description</t>
@@ -3258,7 +3402,7 @@
         <v>1908.0</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
@@ -3275,7 +3419,7 @@
         <v>1909.0</v>
       </c>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -3292,7 +3436,7 @@
         <v>1910.0</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -3309,7 +3453,7 @@
         <v>1911.0</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -3326,7 +3470,7 @@
         <v>1912.0</v>
       </c>
       <c r="E187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
@@ -3343,7 +3487,7 @@
         <v>1913.0</v>
       </c>
       <c r="E188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
@@ -3360,7 +3504,7 @@
         <v>1914.0</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
@@ -3377,7 +3521,7 @@
         <v>1915.0</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -3394,7 +3538,7 @@
         <v>1916.0</v>
       </c>
       <c r="E191" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
@@ -3411,7 +3555,7 @@
         <v>1917.0</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193">
@@ -3428,7 +3572,7 @@
         <v>1918.0</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
@@ -3445,7 +3589,7 @@
         <v>1919.0</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -3462,7 +3606,7 @@
         <v>1920.0</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -3479,7 +3623,7 @@
         <v>1921.0</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -3496,7 +3640,7 @@
         <v>1922.0</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
@@ -3513,7 +3657,7 @@
         <v>1923.0</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -3530,7 +3674,7 @@
         <v>1924.0</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
@@ -3547,7 +3691,7 @@
         <v>1925.0</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
@@ -3785,7 +3929,7 @@
         <v>1939.0</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
@@ -3802,7 +3946,7 @@
         <v>1940.0</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -3819,7 +3963,7 @@
         <v>1941.0</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -3836,7 +3980,7 @@
         <v>1942.0</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218">
@@ -3853,7 +3997,7 @@
         <v>1943.0</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
@@ -3870,7 +4014,7 @@
         <v>1944.0</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220">
@@ -3887,7 +4031,7 @@
         <v>1945.0</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221">
@@ -3904,7 +4048,7 @@
         <v>1946.0</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
@@ -3921,7 +4065,7 @@
         <v>1947.0</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223">
@@ -3938,7 +4082,7 @@
         <v>1948.0</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
@@ -3955,7 +4099,7 @@
         <v>1949.0</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225">
@@ -3972,7 +4116,7 @@
         <v>1950.0</v>
       </c>
       <c r="E225" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226">
@@ -3989,7 +4133,7 @@
         <v>1951.0</v>
       </c>
       <c r="E226" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227">
@@ -4006,7 +4150,7 @@
         <v>1952.0</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
@@ -4023,7 +4167,7 @@
         <v>1953.0</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229">
@@ -4040,7 +4184,7 @@
         <v>1954.0</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230">
@@ -4057,7 +4201,7 @@
         <v>1955.0</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231">
@@ -4074,7 +4218,7 @@
         <v>1956.0</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
@@ -4091,7 +4235,7 @@
         <v>1957.0</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -4108,7 +4252,7 @@
         <v>1958.0</v>
       </c>
       <c r="E233" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -4125,7 +4269,7 @@
         <v>1959.0</v>
       </c>
       <c r="E234" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235">
@@ -4142,7 +4286,7 @@
         <v>1960.0</v>
       </c>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236">
@@ -4159,7 +4303,7 @@
         <v>1961.0</v>
       </c>
       <c r="E236" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237">
@@ -4176,7 +4320,7 @@
         <v>1962.0</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
@@ -4193,7 +4337,7 @@
         <v>1963.0</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239">
@@ -4210,7 +4354,7 @@
         <v>1964.0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240">
@@ -4227,7 +4371,7 @@
         <v>1965.0</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
@@ -4244,7 +4388,7 @@
         <v>1966.0</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -4261,7 +4405,7 @@
         <v>1967.0</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243">
@@ -4278,7 +4422,7 @@
         <v>1968.0</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
@@ -4295,7 +4439,7 @@
         <v>1969.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245">
@@ -4312,7 +4456,7 @@
         <v>1970.0</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246">
@@ -4329,7 +4473,7 @@
         <v>1971.0</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247">
@@ -4346,7 +4490,7 @@
         <v>1972.0</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248">
@@ -4363,7 +4507,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="249">
@@ -4380,7 +4524,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250">
@@ -4397,7 +4541,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251">
@@ -4414,7 +4558,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252">
@@ -4431,7 +4575,7 @@
         <v>1977.0</v>
       </c>
       <c r="E252" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253">
@@ -4448,7 +4592,7 @@
         <v>1978.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="254">
@@ -4465,7 +4609,7 @@
         <v>1979.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -4482,7 +4626,7 @@
         <v>1980.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="256">
@@ -4499,7 +4643,7 @@
         <v>1981.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="257">
@@ -4516,7 +4660,7 @@
         <v>1982.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258">
@@ -4533,7 +4677,7 @@
         <v>1983.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259">
@@ -4550,7 +4694,7 @@
         <v>1984.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="260">
@@ -4567,7 +4711,7 @@
         <v>1985.0</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="261">
@@ -4584,7 +4728,7 @@
         <v>1986.0</v>
       </c>
       <c r="E261" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262">
@@ -4601,7 +4745,7 @@
         <v>1987.0</v>
       </c>
       <c r="E262" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="263">
@@ -4618,7 +4762,7 @@
         <v>1988.0</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="264">
@@ -4635,7 +4779,7 @@
         <v>1989.0</v>
       </c>
       <c r="E264" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="265">
@@ -4652,7 +4796,7 @@
         <v>1990.0</v>
       </c>
       <c r="E265" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="266">
@@ -4669,7 +4813,7 @@
         <v>1991.0</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="267">
@@ -4686,7 +4830,7 @@
         <v>1992.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="268">
@@ -4703,7 +4847,7 @@
         <v>1993.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269">
@@ -4720,7 +4864,7 @@
         <v>1994.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="270">
@@ -4737,7 +4881,7 @@
         <v>1995.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="271">
@@ -4754,7 +4898,7 @@
         <v>1996.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="272">
@@ -4771,7 +4915,7 @@
         <v>1997.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="273">
@@ -4788,7 +4932,7 @@
         <v>1998.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="274">
@@ -4805,7 +4949,7 @@
         <v>1999.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="275">
@@ -4822,7 +4966,7 @@
         <v>2000.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276">
@@ -4839,7 +4983,7 @@
         <v>2001.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="277">
@@ -4856,7 +5000,7 @@
         <v>2002.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="278">
@@ -4873,7 +5017,7 @@
         <v>2003.0</v>
       </c>
       <c r="E278" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="279">
@@ -4890,7 +5034,7 @@
         <v>2004.0</v>
       </c>
       <c r="E279" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="280">
@@ -4907,7 +5051,7 @@
         <v>2005.0</v>
       </c>
       <c r="E280" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="281">
@@ -4924,7 +5068,7 @@
         <v>2006.0</v>
       </c>
       <c r="E281" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="282">
@@ -4941,7 +5085,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="283">
@@ -4958,7 +5102,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284">
@@ -4975,7 +5119,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285">
@@ -4992,7 +5136,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="286">
@@ -5009,7 +5153,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="287">
@@ -5026,7 +5170,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5044,50 +5188,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
